--- a/projects/test_emerging_tech/data/data_virginia.xlsx
+++ b/projects/test_emerging_tech/data/data_virginia.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BC4C4F-2255-493A-A5ED-58DC1BAE064A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD57AA8-9996-4348-B301-FD4B50234D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -25,8 +25,8 @@
     <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId15"/>
     <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId16"/>
     <sheet name="MinCapacity" sheetId="22" r:id="rId17"/>
-    <sheet name="ReserveMargin" sheetId="13" r:id="rId18"/>
-    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId19"/>
+    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId18"/>
+    <sheet name="ReserveMargin" sheetId="13" r:id="rId19"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -937,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -972,6 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2860,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5340,7 +5341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D2EA99-FD3E-46B3-B04D-E80D1698DC88}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
@@ -5581,6 +5582,4958 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:E290"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="34">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="34">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="34">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="34">
+        <v>19.25186742656</v>
+      </c>
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="34">
+        <v>32.033336627600001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="34">
+        <v>59.116361868799999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="34">
+        <v>75.7015817132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="34">
+        <v>75.523649305399999</v>
+      </c>
+      <c r="E15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="34">
+        <v>69.883152850800002</v>
+      </c>
+      <c r="E16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="34">
+        <v>56.584784266200003</v>
+      </c>
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="34">
+        <v>46.217010120399998</v>
+      </c>
+      <c r="E18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="34">
+        <v>32.391710957200004</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="34">
+        <v>13.296544863919999</v>
+      </c>
+      <c r="E20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="34">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="34">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="34">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="34">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="34">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="34">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="34">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="34">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="34">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="34">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="34">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="34">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="34">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="34">
+        <v>0.17007619299525001</v>
+      </c>
+      <c r="E34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="34">
+        <v>15.696040761700001</v>
+      </c>
+      <c r="E35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="34">
+        <v>38.645877667500002</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="34">
+        <v>61.593515224499995</v>
+      </c>
+      <c r="E37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="34">
+        <v>75.128007701750008</v>
+      </c>
+      <c r="E38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="34">
+        <v>88.272328037000008</v>
+      </c>
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="34">
+        <v>92.401376908750009</v>
+      </c>
+      <c r="E40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="34">
+        <v>84.436468638500003</v>
+      </c>
+      <c r="E41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="34">
+        <v>69.422663744749997</v>
+      </c>
+      <c r="E42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="34">
+        <v>48.967209124250004</v>
+      </c>
+      <c r="E43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="34">
+        <v>25.266435997999999</v>
+      </c>
+      <c r="E44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="34">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="34">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="34">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="34">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="34">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="34">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="34">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="34">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="34">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="34">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="34">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="34">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="34">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="34">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="34">
+        <v>19.25186742656</v>
+      </c>
+      <c r="E59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="34">
+        <v>32.033336627600001</v>
+      </c>
+      <c r="E60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="34">
+        <v>59.116361868799999</v>
+      </c>
+      <c r="E61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="34">
+        <v>75.7015817132</v>
+      </c>
+      <c r="E62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="34">
+        <v>75.523649305399999</v>
+      </c>
+      <c r="E63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="34">
+        <v>69.883152850800002</v>
+      </c>
+      <c r="E64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="34">
+        <v>56.584784266200003</v>
+      </c>
+      <c r="E65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="34">
+        <v>46.217010120399998</v>
+      </c>
+      <c r="E66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="34">
+        <v>32.391710957200004</v>
+      </c>
+      <c r="E67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="34">
+        <v>13.296544863919999</v>
+      </c>
+      <c r="E68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="34">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="34">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="34">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="34">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="34">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="34">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" s="34">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" s="34">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="34">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="34">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>206</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" s="34">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
+        <v>206</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D80" s="34">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" s="34">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" s="34">
+        <v>8.5038096497625004E-2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="34">
+        <v>7.8480203808500004</v>
+      </c>
+      <c r="E83" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="34">
+        <v>19.322938833750001</v>
+      </c>
+      <c r="E84" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>206</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="34">
+        <v>30.796757612249998</v>
+      </c>
+      <c r="E85" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="34">
+        <v>37.564003850874997</v>
+      </c>
+      <c r="E86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="34">
+        <v>44.136164018499997</v>
+      </c>
+      <c r="E87" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" s="34">
+        <v>46.200688454375005</v>
+      </c>
+      <c r="E88" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="34">
+        <v>42.218234319249994</v>
+      </c>
+      <c r="E89" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>206</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="34">
+        <v>34.711331872374998</v>
+      </c>
+      <c r="E90" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="34">
+        <v>24.483604562124999</v>
+      </c>
+      <c r="E91" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" s="34">
+        <v>12.633217998999999</v>
+      </c>
+      <c r="E92" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" s="34">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" s="34">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="34">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" s="34">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97" s="34">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D98" s="34">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="34">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D100" s="34">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" s="34">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" t="s">
+        <v>215</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D102" s="34">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103" s="34">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B104" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D104" s="34">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B105" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D105" s="34">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B106" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" s="34">
+        <v>2.2676825732700003E-2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D107" s="34">
+        <v>2.0928054348933331</v>
+      </c>
+      <c r="E107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" s="34">
+        <v>5.1527836889999996</v>
+      </c>
+      <c r="E108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B109" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="34">
+        <v>8.2124686965999985</v>
+      </c>
+      <c r="E109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" s="34">
+        <v>10.017067693566666</v>
+      </c>
+      <c r="E110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B111" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" s="34">
+        <v>11.769643738266666</v>
+      </c>
+      <c r="E111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B112" t="s">
+        <v>215</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" s="34">
+        <v>12.320183587833334</v>
+      </c>
+      <c r="E112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113" t="s">
+        <v>215</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D113" s="34">
+        <v>11.258195818466666</v>
+      </c>
+      <c r="E113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B114" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" s="34">
+        <v>9.2563551659666672</v>
+      </c>
+      <c r="E114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B115" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D115" s="34">
+        <v>6.5289612165666666</v>
+      </c>
+      <c r="E115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B116" t="s">
+        <v>215</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D116" s="34">
+        <v>3.368858133066666</v>
+      </c>
+      <c r="E116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B117" t="s">
+        <v>215</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D117" s="34">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B118" t="s">
+        <v>215</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D118" s="34">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B119" t="s">
+        <v>215</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" s="34">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B120" t="s">
+        <v>215</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D120" s="34">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" t="s">
+        <v>215</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D121" s="34">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B122" t="s">
+        <v>215</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D122" s="34">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B123" t="s">
+        <v>228</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D123" s="34">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B124" t="s">
+        <v>228</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D124" s="34">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B125" t="s">
+        <v>228</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D125" s="34">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B126" t="s">
+        <v>228</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126" s="34">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B127" t="s">
+        <v>228</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D127" s="34">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B128" t="s">
+        <v>228</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D128" s="34">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B129" t="s">
+        <v>228</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D129" s="34">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B130" t="s">
+        <v>228</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D130" s="34">
+        <v>8.5038096497625004E-2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B131" t="s">
+        <v>228</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D131" s="34">
+        <v>7.8480203808500004</v>
+      </c>
+      <c r="E131" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B132" t="s">
+        <v>228</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D132" s="34">
+        <v>19.322938833750001</v>
+      </c>
+      <c r="E132" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B133" t="s">
+        <v>228</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="34">
+        <v>30.796757612249994</v>
+      </c>
+      <c r="E133" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B134" t="s">
+        <v>228</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D134" s="34">
+        <v>37.564003850875004</v>
+      </c>
+      <c r="E134" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B135" t="s">
+        <v>228</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D135" s="34">
+        <v>44.136164018500004</v>
+      </c>
+      <c r="E135" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B136" t="s">
+        <v>228</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D136" s="34">
+        <v>46.200688454375005</v>
+      </c>
+      <c r="E136" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B137" t="s">
+        <v>228</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D137" s="34">
+        <v>42.218234319249994</v>
+      </c>
+      <c r="E137" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B138" t="s">
+        <v>228</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D138" s="34">
+        <v>34.711331872374998</v>
+      </c>
+      <c r="E138" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B139" t="s">
+        <v>228</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D139" s="34">
+        <v>24.483604562125002</v>
+      </c>
+      <c r="E139" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B140" t="s">
+        <v>228</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D140" s="34">
+        <v>12.633217998999998</v>
+      </c>
+      <c r="E140" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B141" t="s">
+        <v>228</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D141" s="34">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B142" t="s">
+        <v>228</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D142" s="34">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B143" t="s">
+        <v>228</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D143" s="34">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B144" t="s">
+        <v>228</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D144" s="34">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B145" t="s">
+        <v>228</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D145" s="34">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B146" t="s">
+        <v>228</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D146" s="34">
+        <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B147" t="s">
+        <v>203</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D147" s="34">
+        <v>53.150865979381443</v>
+      </c>
+      <c r="E147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B148" t="s">
+        <v>203</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D148" s="34">
+        <v>53.336168522336777</v>
+      </c>
+      <c r="E148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B149" t="s">
+        <v>203</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D149" s="34">
+        <v>55.734086872852231</v>
+      </c>
+      <c r="E149" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B150" t="s">
+        <v>203</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D150" s="34">
+        <v>57.370871202749136</v>
+      </c>
+      <c r="E150" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B151" t="s">
+        <v>203</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D151" s="34">
+        <v>56.353376494845364</v>
+      </c>
+      <c r="E151" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B152" t="s">
+        <v>203</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D152" s="34">
+        <v>56.285603161512036</v>
+      </c>
+      <c r="E152" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B153" t="s">
+        <v>203</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D153" s="34">
+        <v>58.39569429553265</v>
+      </c>
+      <c r="E153" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B154" t="s">
+        <v>203</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D154" s="34">
+        <v>57.311627628865978</v>
+      </c>
+      <c r="E154" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B155" t="s">
+        <v>203</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D155" s="34">
+        <v>55.140143092783504</v>
+      </c>
+      <c r="E155" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B156" t="s">
+        <v>203</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D156" s="34">
+        <v>54.421730584192446</v>
+      </c>
+      <c r="E156" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B157" t="s">
+        <v>203</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D157" s="34">
+        <v>55.335002886597934</v>
+      </c>
+      <c r="E157" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B158" t="s">
+        <v>203</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D158" s="34">
+        <v>55.059227353951897</v>
+      </c>
+      <c r="E158" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B159" t="s">
+        <v>203</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D159" s="34">
+        <v>53.408029690721648</v>
+      </c>
+      <c r="E159" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B160" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D160" s="34">
+        <v>51.713535120274905</v>
+      </c>
+      <c r="E160" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B161" t="s">
+        <v>203</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D161" s="34">
+        <v>49.390724810996566</v>
+      </c>
+      <c r="E161" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B162" t="s">
+        <v>203</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D162" s="34">
+        <v>46.666598487972507</v>
+      </c>
+      <c r="E162" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B163" t="s">
+        <v>203</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D163" s="34">
+        <v>44.258702405498283</v>
+      </c>
+      <c r="E163" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B164" t="s">
+        <v>203</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D164" s="34">
+        <v>43.27873484536083</v>
+      </c>
+      <c r="E164" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B165" t="s">
+        <v>203</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D165" s="34">
+        <v>42.501236838487969</v>
+      </c>
+      <c r="E165" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B166" t="s">
+        <v>203</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D166" s="34">
+        <v>45.965182268041239</v>
+      </c>
+      <c r="E166" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B167" t="s">
+        <v>203</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D167" s="34">
+        <v>46.560330584192442</v>
+      </c>
+      <c r="E167" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B168" t="s">
+        <v>203</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D168" s="34">
+        <v>48.989282336769755</v>
+      </c>
+      <c r="E168" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B169" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D169" s="34">
+        <v>49.936404948453607</v>
+      </c>
+      <c r="E169" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B170" t="s">
+        <v>203</v>
+      </c>
+      <c r="C170" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D170" s="34">
+        <v>53.323165223367695</v>
+      </c>
+      <c r="E170" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B171" t="s">
+        <v>204</v>
+      </c>
+      <c r="C171" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D171" s="34">
+        <v>32.581180343642615</v>
+      </c>
+      <c r="E171" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B172" t="s">
+        <v>204</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D172" s="34">
+        <v>32.457226941580764</v>
+      </c>
+      <c r="E172" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B173" t="s">
+        <v>204</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D173" s="34">
+        <v>33.768511477663239</v>
+      </c>
+      <c r="E173" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B174" t="s">
+        <v>204</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D174" s="34">
+        <v>33.315571134020622</v>
+      </c>
+      <c r="E174" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B175" t="s">
+        <v>204</v>
+      </c>
+      <c r="C175" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D175" s="34">
+        <v>31.805278900343644</v>
+      </c>
+      <c r="E175" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B176" t="s">
+        <v>204</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D176" s="34">
+        <v>29.465197250859109</v>
+      </c>
+      <c r="E176" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B177" t="s">
+        <v>204</v>
+      </c>
+      <c r="C177" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D177" s="34">
+        <v>27.453596701030929</v>
+      </c>
+      <c r="E177" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B178" t="s">
+        <v>204</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D178" s="34">
+        <v>26.903427216494844</v>
+      </c>
+      <c r="E178" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B179" t="s">
+        <v>204</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D179" s="34">
+        <v>27.165728384879728</v>
+      </c>
+      <c r="E179" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B180" t="s">
+        <v>204</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D180" s="34">
+        <v>25.872486597938146</v>
+      </c>
+      <c r="E180" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B181" t="s">
+        <v>204</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D181" s="34">
+        <v>25.566256219931276</v>
+      </c>
+      <c r="E181" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B182" t="s">
+        <v>204</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D182" s="34">
+        <v>24.801982817869412</v>
+      </c>
+      <c r="E182" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B183" t="s">
+        <v>204</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D183" s="34">
+        <v>23.32203793814433</v>
+      </c>
+      <c r="E183" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B184" t="s">
+        <v>204</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D184" s="34">
+        <v>22.389951477663232</v>
+      </c>
+      <c r="E184" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B185" t="s">
+        <v>204</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D185" s="34">
+        <v>21.356001099656357</v>
+      </c>
+      <c r="E185" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B186" t="s">
+        <v>204</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D186" s="34">
+        <v>21.436859931271474</v>
+      </c>
+      <c r="E186" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B187" t="s">
+        <v>204</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D187" s="34">
+        <v>22.184133883161515</v>
+      </c>
+      <c r="E187" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B188" t="s">
+        <v>204</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D188" s="34">
+        <v>22.783145567010308</v>
+      </c>
+      <c r="E188" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B189" t="s">
+        <v>204</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D189" s="34">
+        <v>25.360112989690716</v>
+      </c>
+      <c r="E189" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B190" t="s">
+        <v>204</v>
+      </c>
+      <c r="C190" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D190" s="34">
+        <v>27.151741855670103</v>
+      </c>
+      <c r="E190" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B191" t="s">
+        <v>204</v>
+      </c>
+      <c r="C191" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D191" s="34">
+        <v>27.405990652920963</v>
+      </c>
+      <c r="E191" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B192" t="s">
+        <v>204</v>
+      </c>
+      <c r="C192" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D192" s="34">
+        <v>30.285954226804122</v>
+      </c>
+      <c r="E192" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B193" t="s">
+        <v>204</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D193" s="34">
+        <v>31.975826666666663</v>
+      </c>
+      <c r="E193" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B194" t="s">
+        <v>204</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D194" s="34">
+        <v>33.338479450171825</v>
+      </c>
+      <c r="E194" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B195" t="s">
+        <v>205</v>
+      </c>
+      <c r="C195" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D195" s="34">
+        <v>46.585625841924404</v>
+      </c>
+      <c r="E195" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B196" t="s">
+        <v>205</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D196" s="34">
+        <v>45.622566048109967</v>
+      </c>
+      <c r="E196" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B197" t="s">
+        <v>205</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D197" s="34">
+        <v>42.897718900343634</v>
+      </c>
+      <c r="E197" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B198" t="s">
+        <v>205</v>
+      </c>
+      <c r="C198" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D198" s="34">
+        <v>42.311514501718221</v>
+      </c>
+      <c r="E198" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B199" t="s">
+        <v>205</v>
+      </c>
+      <c r="C199" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D199" s="34">
+        <v>43.183693470790374</v>
+      </c>
+      <c r="E199" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B200" t="s">
+        <v>205</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D200" s="34">
+        <v>42.343869415807561</v>
+      </c>
+      <c r="E200" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B201" t="s">
+        <v>205</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D201" s="34">
+        <v>41.857009209621992</v>
+      </c>
+      <c r="E201" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B202" t="s">
+        <v>205</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D202" s="34">
+        <v>40.449165773195872</v>
+      </c>
+      <c r="E202" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B203" t="s">
+        <v>205</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D203" s="34">
+        <v>41.499410584192439</v>
+      </c>
+      <c r="E203" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B204" t="s">
+        <v>205</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D204" s="34">
+        <v>41.131195601374571</v>
+      </c>
+      <c r="E204" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B205" t="s">
+        <v>205</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D205" s="34">
+        <v>41.512173608247416</v>
+      </c>
+      <c r="E205" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B206" t="s">
+        <v>205</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D206" s="34">
+        <v>43.25671807560137</v>
+      </c>
+      <c r="E206" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B207" t="s">
+        <v>205</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D207" s="34">
+        <v>43.395097457044685</v>
+      </c>
+      <c r="E207" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B208" t="s">
+        <v>205</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D208" s="34">
+        <v>44.685721512027492</v>
+      </c>
+      <c r="E208" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B209" t="s">
+        <v>205</v>
+      </c>
+      <c r="C209" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D209" s="34">
+        <v>44.333744054982816</v>
+      </c>
+      <c r="E209" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B210" t="s">
+        <v>205</v>
+      </c>
+      <c r="C210" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D210" s="34">
+        <v>44.190682474226804</v>
+      </c>
+      <c r="E210" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B211" t="s">
+        <v>205</v>
+      </c>
+      <c r="C211" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D211" s="34">
+        <v>41.712000137457046</v>
+      </c>
+      <c r="E211" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B212" t="s">
+        <v>205</v>
+      </c>
+      <c r="C212" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D212" s="34">
+        <v>42.245593814432993</v>
+      </c>
+      <c r="E212" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B213" t="s">
+        <v>205</v>
+      </c>
+      <c r="C213" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D213" s="34">
+        <v>43.195979106529208</v>
+      </c>
+      <c r="E213" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B214" t="s">
+        <v>205</v>
+      </c>
+      <c r="C214" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D214" s="34">
+        <v>44.144341030927841</v>
+      </c>
+      <c r="E214" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B215" t="s">
+        <v>205</v>
+      </c>
+      <c r="C215" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D215" s="34">
+        <v>44.187318625429562</v>
+      </c>
+      <c r="E215" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B216" t="s">
+        <v>205</v>
+      </c>
+      <c r="C216" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D216" s="34">
+        <v>44.527339243986255</v>
+      </c>
+      <c r="E216" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B217" t="s">
+        <v>205</v>
+      </c>
+      <c r="C217" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D217" s="34">
+        <v>43.642217044673544</v>
+      </c>
+      <c r="E217" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B218" t="s">
+        <v>205</v>
+      </c>
+      <c r="C218" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D218" s="34">
+        <v>45.599148728522337</v>
+      </c>
+      <c r="E218" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B219" t="s">
+        <v>206</v>
+      </c>
+      <c r="C219" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D219" s="34">
+        <v>50.439676563573883</v>
+      </c>
+      <c r="E219" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B220" t="s">
+        <v>206</v>
+      </c>
+      <c r="C220" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D220" s="34">
+        <v>51.858569484536083</v>
+      </c>
+      <c r="E220" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B221" t="s">
+        <v>206</v>
+      </c>
+      <c r="C221" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D221" s="34">
+        <v>53.099355463917533</v>
+      </c>
+      <c r="E221" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B222" t="s">
+        <v>206</v>
+      </c>
+      <c r="C222" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D222" s="34">
+        <v>55.40808756013746</v>
+      </c>
+      <c r="E222" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B223" t="s">
+        <v>206</v>
+      </c>
+      <c r="C223" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D223" s="34">
+        <v>57.284871752577317</v>
+      </c>
+      <c r="E223" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B224" t="s">
+        <v>206</v>
+      </c>
+      <c r="C224" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D224" s="34">
+        <v>59.571014845360835</v>
+      </c>
+      <c r="E224" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B225" t="s">
+        <v>206</v>
+      </c>
+      <c r="C225" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D225" s="34">
+        <v>60.290097594501709</v>
+      </c>
+      <c r="E225" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B226" t="s">
+        <v>206</v>
+      </c>
+      <c r="C226" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D226" s="34">
+        <v>59.696991615120275</v>
+      </c>
+      <c r="E226" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B227" t="s">
+        <v>206</v>
+      </c>
+      <c r="C227" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D227" s="34">
+        <v>60.78716</v>
+      </c>
+      <c r="E227" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B228" t="s">
+        <v>206</v>
+      </c>
+      <c r="C228" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D228" s="34">
+        <v>58.457669415807558</v>
+      </c>
+      <c r="E228" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B229" t="s">
+        <v>206</v>
+      </c>
+      <c r="C229" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D229" s="34">
+        <v>58.001630790378002</v>
+      </c>
+      <c r="E229" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B230" t="s">
+        <v>206</v>
+      </c>
+      <c r="C230" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D230" s="34">
+        <v>56.30842611683849</v>
+      </c>
+      <c r="E230" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B231" t="s">
+        <v>206</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D231" s="34">
+        <v>54.542797525773196</v>
+      </c>
+      <c r="E231" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B232" t="s">
+        <v>206</v>
+      </c>
+      <c r="C232" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D232" s="34">
+        <v>50.091752164948453</v>
+      </c>
+      <c r="E232" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B233" t="s">
+        <v>206</v>
+      </c>
+      <c r="C233" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D233" s="34">
+        <v>49.54285360824742</v>
+      </c>
+      <c r="E233" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B234" t="s">
+        <v>206</v>
+      </c>
+      <c r="C234" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D234" s="34">
+        <v>50.060076975945023</v>
+      </c>
+      <c r="E234" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B235" t="s">
+        <v>206</v>
+      </c>
+      <c r="C235" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D235" s="34">
+        <v>47.718996288659795</v>
+      </c>
+      <c r="E235" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B236" t="s">
+        <v>206</v>
+      </c>
+      <c r="C236" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D236" s="34">
+        <v>47.301174020618554</v>
+      </c>
+      <c r="E236" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B237" t="s">
+        <v>206</v>
+      </c>
+      <c r="C237" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D237" s="34">
+        <v>46.242276151202745</v>
+      </c>
+      <c r="E237" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B238" t="s">
+        <v>206</v>
+      </c>
+      <c r="C238" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D238" s="34">
+        <v>46.463632577319586</v>
+      </c>
+      <c r="E238" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B239" t="s">
+        <v>206</v>
+      </c>
+      <c r="C239" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D239" s="34">
+        <v>47.658447010309274</v>
+      </c>
+      <c r="E239" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B240" t="s">
+        <v>206</v>
+      </c>
+      <c r="C240" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D240" s="34">
+        <v>51.763781030927831</v>
+      </c>
+      <c r="E240" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B241" t="s">
+        <v>206</v>
+      </c>
+      <c r="C241" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D241" s="34">
+        <v>51.207193676975947</v>
+      </c>
+      <c r="E241" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B242" t="s">
+        <v>206</v>
+      </c>
+      <c r="C242" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D242" s="34">
+        <v>52.376010996563572</v>
+      </c>
+      <c r="E242" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B243" t="s">
+        <v>215</v>
+      </c>
+      <c r="C243" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D243" s="34">
+        <v>50.439676563573883</v>
+      </c>
+      <c r="E243" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B244" t="s">
+        <v>215</v>
+      </c>
+      <c r="C244" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D244" s="34">
+        <v>51.858569484536083</v>
+      </c>
+      <c r="E244" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B245" t="s">
+        <v>215</v>
+      </c>
+      <c r="C245" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D245" s="34">
+        <v>53.099355463917533</v>
+      </c>
+      <c r="E245" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B246" t="s">
+        <v>215</v>
+      </c>
+      <c r="C246" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D246" s="34">
+        <v>55.40808756013746</v>
+      </c>
+      <c r="E246" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B247" t="s">
+        <v>215</v>
+      </c>
+      <c r="C247" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D247" s="34">
+        <v>57.284871752577317</v>
+      </c>
+      <c r="E247" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B248" t="s">
+        <v>215</v>
+      </c>
+      <c r="C248" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D248" s="34">
+        <v>59.571014845360835</v>
+      </c>
+      <c r="E248" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B249" t="s">
+        <v>215</v>
+      </c>
+      <c r="C249" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D249" s="34">
+        <v>60.290097594501709</v>
+      </c>
+      <c r="E249" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B250" t="s">
+        <v>215</v>
+      </c>
+      <c r="C250" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D250" s="34">
+        <v>59.696991615120275</v>
+      </c>
+      <c r="E250" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B251" t="s">
+        <v>215</v>
+      </c>
+      <c r="C251" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D251" s="34">
+        <v>60.78716</v>
+      </c>
+      <c r="E251" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B252" t="s">
+        <v>215</v>
+      </c>
+      <c r="C252" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D252" s="34">
+        <v>58.457669415807558</v>
+      </c>
+      <c r="E252" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B253" t="s">
+        <v>215</v>
+      </c>
+      <c r="C253" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D253" s="34">
+        <v>58.001630790378002</v>
+      </c>
+      <c r="E253" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B254" t="s">
+        <v>215</v>
+      </c>
+      <c r="C254" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D254" s="34">
+        <v>56.30842611683849</v>
+      </c>
+      <c r="E254" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B255" t="s">
+        <v>215</v>
+      </c>
+      <c r="C255" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D255" s="34">
+        <v>54.542797525773196</v>
+      </c>
+      <c r="E255" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B256" t="s">
+        <v>215</v>
+      </c>
+      <c r="C256" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D256" s="34">
+        <v>50.091752164948453</v>
+      </c>
+      <c r="E256" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B257" t="s">
+        <v>215</v>
+      </c>
+      <c r="C257" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D257" s="34">
+        <v>49.54285360824742</v>
+      </c>
+      <c r="E257" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B258" t="s">
+        <v>215</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D258" s="34">
+        <v>50.060076975945023</v>
+      </c>
+      <c r="E258" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B259" t="s">
+        <v>215</v>
+      </c>
+      <c r="C259" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D259" s="34">
+        <v>47.718996288659795</v>
+      </c>
+      <c r="E259" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B260" t="s">
+        <v>215</v>
+      </c>
+      <c r="C260" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D260" s="34">
+        <v>47.301174020618554</v>
+      </c>
+      <c r="E260" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B261" t="s">
+        <v>215</v>
+      </c>
+      <c r="C261" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D261" s="34">
+        <v>46.242276151202745</v>
+      </c>
+      <c r="E261" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B262" t="s">
+        <v>215</v>
+      </c>
+      <c r="C262" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D262" s="34">
+        <v>46.463632577319586</v>
+      </c>
+      <c r="E262" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B263" t="s">
+        <v>215</v>
+      </c>
+      <c r="C263" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D263" s="34">
+        <v>47.658447010309274</v>
+      </c>
+      <c r="E263" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B264" t="s">
+        <v>215</v>
+      </c>
+      <c r="C264" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D264" s="34">
+        <v>51.763781030927831</v>
+      </c>
+      <c r="E264" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B265" t="s">
+        <v>215</v>
+      </c>
+      <c r="C265" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D265" s="34">
+        <v>51.207193676975947</v>
+      </c>
+      <c r="E265" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B266" t="s">
+        <v>215</v>
+      </c>
+      <c r="C266" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D266" s="34">
+        <v>52.376010996563572</v>
+      </c>
+      <c r="E266" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B267" t="s">
+        <v>228</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D267" s="34">
+        <v>32.581180343642615</v>
+      </c>
+      <c r="E267" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B268" t="s">
+        <v>228</v>
+      </c>
+      <c r="C268" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D268" s="34">
+        <v>32.457226941580764</v>
+      </c>
+      <c r="E268" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B269" t="s">
+        <v>228</v>
+      </c>
+      <c r="C269" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D269" s="34">
+        <v>33.768511477663239</v>
+      </c>
+      <c r="E269" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B270" t="s">
+        <v>228</v>
+      </c>
+      <c r="C270" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D270" s="34">
+        <v>33.315571134020622</v>
+      </c>
+      <c r="E270" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B271" t="s">
+        <v>228</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D271" s="34">
+        <v>31.805278900343644</v>
+      </c>
+      <c r="E271" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B272" t="s">
+        <v>228</v>
+      </c>
+      <c r="C272" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D272" s="34">
+        <v>29.465197250859109</v>
+      </c>
+      <c r="E272" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B273" t="s">
+        <v>228</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D273" s="34">
+        <v>27.453596701030929</v>
+      </c>
+      <c r="E273" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B274" t="s">
+        <v>228</v>
+      </c>
+      <c r="C274" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D274" s="34">
+        <v>26.903427216494844</v>
+      </c>
+      <c r="E274" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B275" t="s">
+        <v>228</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D275" s="34">
+        <v>27.165728384879728</v>
+      </c>
+      <c r="E275" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B276" t="s">
+        <v>228</v>
+      </c>
+      <c r="C276" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D276" s="34">
+        <v>25.872486597938146</v>
+      </c>
+      <c r="E276" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B277" t="s">
+        <v>228</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D277" s="34">
+        <v>25.566256219931276</v>
+      </c>
+      <c r="E277" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B278" t="s">
+        <v>228</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D278" s="34">
+        <v>24.801982817869412</v>
+      </c>
+      <c r="E278" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B279" t="s">
+        <v>228</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D279" s="34">
+        <v>23.32203793814433</v>
+      </c>
+      <c r="E279" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B280" t="s">
+        <v>228</v>
+      </c>
+      <c r="C280" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D280" s="34">
+        <v>22.389951477663232</v>
+      </c>
+      <c r="E280" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B281" t="s">
+        <v>228</v>
+      </c>
+      <c r="C281" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D281" s="34">
+        <v>21.356001099656357</v>
+      </c>
+      <c r="E281" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B282" t="s">
+        <v>228</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D282" s="34">
+        <v>21.436859931271474</v>
+      </c>
+      <c r="E282" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B283" t="s">
+        <v>228</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D283" s="34">
+        <v>22.184133883161515</v>
+      </c>
+      <c r="E283" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B284" t="s">
+        <v>228</v>
+      </c>
+      <c r="C284" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D284" s="34">
+        <v>22.783145567010308</v>
+      </c>
+      <c r="E284" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B285" t="s">
+        <v>228</v>
+      </c>
+      <c r="C285" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D285" s="34">
+        <v>25.360112989690716</v>
+      </c>
+      <c r="E285" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B286" t="s">
+        <v>228</v>
+      </c>
+      <c r="C286" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D286" s="34">
+        <v>27.151741855670103</v>
+      </c>
+      <c r="E286" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B287" t="s">
+        <v>228</v>
+      </c>
+      <c r="C287" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D287" s="34">
+        <v>27.405990652920963</v>
+      </c>
+      <c r="E287" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B288" t="s">
+        <v>228</v>
+      </c>
+      <c r="C288" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D288" s="34">
+        <v>30.285954226804122</v>
+      </c>
+      <c r="E288" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B289" t="s">
+        <v>228</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D289" s="34">
+        <v>31.975826666666663</v>
+      </c>
+      <c r="E289" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B290" t="s">
+        <v>228</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D290" s="34">
+        <v>33.338479450171825</v>
+      </c>
+      <c r="E290" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5618,4958 +10571,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E290"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11">
-        <v>0.96259337132800005</v>
-      </c>
-      <c r="E11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12">
-        <v>1.60166683138</v>
-      </c>
-      <c r="E12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13">
-        <v>2.95581809344</v>
-      </c>
-      <c r="E13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14">
-        <v>3.7850790856600001</v>
-      </c>
-      <c r="E14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15">
-        <v>3.7761824652699998</v>
-      </c>
-      <c r="E15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16">
-        <v>3.4941576425399998</v>
-      </c>
-      <c r="E16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17">
-        <v>2.8292392133100002</v>
-      </c>
-      <c r="E17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18">
-        <v>2.31085050602</v>
-      </c>
-      <c r="E18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19">
-        <v>1.6195855478600001</v>
-      </c>
-      <c r="E19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20">
-        <v>0.66482724319599995</v>
-      </c>
-      <c r="E20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" t="s">
-        <v>203</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" t="s">
-        <v>204</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" t="s">
-        <v>204</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34">
-        <v>8.5038096497625001E-3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" t="s">
-        <v>204</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35">
-        <v>0.78480203808500004</v>
-      </c>
-      <c r="E35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36">
-        <v>1.9322938833750001</v>
-      </c>
-      <c r="E36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" t="s">
-        <v>204</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37">
-        <v>3.0796757612249999</v>
-      </c>
-      <c r="E37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" t="s">
-        <v>204</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38">
-        <v>3.7564003850875003</v>
-      </c>
-      <c r="E38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" t="s">
-        <v>204</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39">
-        <v>4.4136164018500006</v>
-      </c>
-      <c r="E39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" t="s">
-        <v>204</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40">
-        <v>4.6200688454375003</v>
-      </c>
-      <c r="E40" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" t="s">
-        <v>204</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41">
-        <v>4.2218234319250003</v>
-      </c>
-      <c r="E41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42">
-        <v>3.4711331872375002</v>
-      </c>
-      <c r="E42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>204</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43">
-        <v>2.4483604562125003</v>
-      </c>
-      <c r="E43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44">
-        <v>1.2633217998999999</v>
-      </c>
-      <c r="E44" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" t="s">
-        <v>204</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>204</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>204</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" t="s">
-        <v>204</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" t="s">
-        <v>205</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" t="s">
-        <v>205</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" t="s">
-        <v>205</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" t="s">
-        <v>205</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" t="s">
-        <v>205</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" t="s">
-        <v>205</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" t="s">
-        <v>205</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" t="s">
-        <v>205</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" t="s">
-        <v>205</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59">
-        <v>0.96259337132800005</v>
-      </c>
-      <c r="E59" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" t="s">
-        <v>205</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60">
-        <v>1.60166683138</v>
-      </c>
-      <c r="E60" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" t="s">
-        <v>205</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61">
-        <v>2.95581809344</v>
-      </c>
-      <c r="E61" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" t="s">
-        <v>205</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62">
-        <v>3.7850790856600001</v>
-      </c>
-      <c r="E62" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" t="s">
-        <v>205</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63">
-        <v>3.7761824652699998</v>
-      </c>
-      <c r="E63" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64">
-        <v>3.4941576425399998</v>
-      </c>
-      <c r="E64" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" t="s">
-        <v>205</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D65">
-        <v>2.8292392133100002</v>
-      </c>
-      <c r="E65" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" t="s">
-        <v>205</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66">
-        <v>2.31085050602</v>
-      </c>
-      <c r="E66" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67">
-        <v>1.6195855478600001</v>
-      </c>
-      <c r="E67" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" t="s">
-        <v>205</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D68">
-        <v>0.66482724319599995</v>
-      </c>
-      <c r="E68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" t="s">
-        <v>205</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" t="s">
-        <v>205</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" t="s">
-        <v>205</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" t="s">
-        <v>205</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" t="s">
-        <v>205</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" t="s">
-        <v>206</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" t="s">
-        <v>206</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" t="s">
-        <v>206</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" t="s">
-        <v>206</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" t="s">
-        <v>206</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" t="s">
-        <v>206</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" t="s">
-        <v>206</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82" t="s">
-        <v>206</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D82">
-        <v>4.25190482488125E-3</v>
-      </c>
-      <c r="E82" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D83">
-        <v>0.39240101904250002</v>
-      </c>
-      <c r="E83" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84" t="s">
-        <v>206</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84">
-        <v>0.96614694168750004</v>
-      </c>
-      <c r="E84" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" t="s">
-        <v>206</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85">
-        <v>1.5398378806124999</v>
-      </c>
-      <c r="E85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" t="s">
-        <v>206</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D86">
-        <v>1.8782001925437499</v>
-      </c>
-      <c r="E86" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D87">
-        <v>2.2068082009249999</v>
-      </c>
-      <c r="E87" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" t="s">
-        <v>206</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D88">
-        <v>2.3100344227187501</v>
-      </c>
-      <c r="E88" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D89">
-        <v>2.1109117159624997</v>
-      </c>
-      <c r="E89" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="s">
-        <v>206</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D90">
-        <v>1.7355665936187501</v>
-      </c>
-      <c r="E90" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" t="s">
-        <v>206</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D91">
-        <v>1.2241802281062499</v>
-      </c>
-      <c r="E91" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>206</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D92">
-        <v>0.63166089994999997</v>
-      </c>
-      <c r="E92" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>206</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>206</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B95" t="s">
-        <v>206</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B96" t="s">
-        <v>206</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B97" t="s">
-        <v>206</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B98" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B99" t="s">
-        <v>215</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B100" t="s">
-        <v>215</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B101" t="s">
-        <v>215</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B102" t="s">
-        <v>215</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B103" t="s">
-        <v>215</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B104" t="s">
-        <v>215</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B105" t="s">
-        <v>215</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B106" t="s">
-        <v>215</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D106">
-        <v>1.133841286635E-3</v>
-      </c>
-      <c r="E106" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B107" t="s">
-        <v>215</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D107">
-        <v>0.10464027174466667</v>
-      </c>
-      <c r="E107" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B108" t="s">
-        <v>215</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D108">
-        <v>0.25763918445</v>
-      </c>
-      <c r="E108" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B109" t="s">
-        <v>215</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D109">
-        <v>0.41062343482999997</v>
-      </c>
-      <c r="E109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B110" t="s">
-        <v>215</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D110">
-        <v>0.50085338467833329</v>
-      </c>
-      <c r="E110" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B111" t="s">
-        <v>215</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D111">
-        <v>0.58848218691333332</v>
-      </c>
-      <c r="E111" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B112" t="s">
-        <v>215</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D112">
-        <v>0.61600917939166666</v>
-      </c>
-      <c r="E112" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B113" t="s">
-        <v>215</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D113">
-        <v>0.56290979092333326</v>
-      </c>
-      <c r="E113" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B114" t="s">
-        <v>215</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D114">
-        <v>0.46281775829833333</v>
-      </c>
-      <c r="E114" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B115" t="s">
-        <v>215</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D115">
-        <v>0.32644806082833333</v>
-      </c>
-      <c r="E115" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B116" t="s">
-        <v>215</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D116">
-        <v>0.16844290665333331</v>
-      </c>
-      <c r="E116" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B117" t="s">
-        <v>215</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B118" t="s">
-        <v>215</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B119" t="s">
-        <v>215</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B120" t="s">
-        <v>215</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B121" t="s">
-        <v>215</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B122" t="s">
-        <v>215</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B123" t="s">
-        <v>228</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B124" t="s">
-        <v>228</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B125" t="s">
-        <v>228</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B126" t="s">
-        <v>228</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B127" t="s">
-        <v>228</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B128" t="s">
-        <v>228</v>
-      </c>
-      <c r="C128" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B129" t="s">
-        <v>228</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B130" t="s">
-        <v>228</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D130">
-        <v>4.25190482488125E-3</v>
-      </c>
-      <c r="E130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B131" t="s">
-        <v>228</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D131">
-        <v>0.39240101904250002</v>
-      </c>
-      <c r="E131" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B132" t="s">
-        <v>228</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D132">
-        <v>0.96614694168750004</v>
-      </c>
-      <c r="E132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B133" t="s">
-        <v>228</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133">
-        <v>1.5398378806124997</v>
-      </c>
-      <c r="E133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B134" t="s">
-        <v>228</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D134">
-        <v>1.8782001925437501</v>
-      </c>
-      <c r="E134" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B135" t="s">
-        <v>228</v>
-      </c>
-      <c r="C135" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D135">
-        <v>2.2068082009250003</v>
-      </c>
-      <c r="E135" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B136" t="s">
-        <v>228</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D136">
-        <v>2.3100344227187501</v>
-      </c>
-      <c r="E136" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B137" t="s">
-        <v>228</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D137">
-        <v>2.1109117159624997</v>
-      </c>
-      <c r="E137" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B138" t="s">
-        <v>228</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D138">
-        <v>1.7355665936187499</v>
-      </c>
-      <c r="E138" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B139" t="s">
-        <v>228</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D139">
-        <v>1.2241802281062502</v>
-      </c>
-      <c r="E139" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B140" t="s">
-        <v>228</v>
-      </c>
-      <c r="C140" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D140">
-        <v>0.63166089994999985</v>
-      </c>
-      <c r="E140" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B141" t="s">
-        <v>228</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B142" t="s">
-        <v>228</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B143" t="s">
-        <v>228</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B144" t="s">
-        <v>228</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B145" t="s">
-        <v>228</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B146" t="s">
-        <v>228</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B147" t="s">
-        <v>203</v>
-      </c>
-      <c r="C147" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D147">
-        <v>1.1554536082474227</v>
-      </c>
-      <c r="E147" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B148" t="s">
-        <v>203</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D148">
-        <v>1.1594819243986256</v>
-      </c>
-      <c r="E148" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B149" t="s">
-        <v>203</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D149">
-        <v>1.2116105841924398</v>
-      </c>
-      <c r="E149" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B150" t="s">
-        <v>203</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D150">
-        <v>1.2471928522336768</v>
-      </c>
-      <c r="E150" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B151" t="s">
-        <v>203</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D151">
-        <v>1.2250734020618557</v>
-      </c>
-      <c r="E151" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B152" t="s">
-        <v>203</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D152">
-        <v>1.2236000687285224</v>
-      </c>
-      <c r="E152" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B153" t="s">
-        <v>203</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D153">
-        <v>1.269471615120275</v>
-      </c>
-      <c r="E153" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B154" t="s">
-        <v>203</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D154">
-        <v>1.2459049484536082</v>
-      </c>
-      <c r="E154" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B155" t="s">
-        <v>203</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D155">
-        <v>1.1986987628865979</v>
-      </c>
-      <c r="E155" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B156" t="s">
-        <v>203</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D156">
-        <v>1.1830810996563574</v>
-      </c>
-      <c r="E156" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B157" t="s">
-        <v>203</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D157">
-        <v>1.2029348453608246</v>
-      </c>
-      <c r="E157" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B158" t="s">
-        <v>203</v>
-      </c>
-      <c r="C158" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D158">
-        <v>1.1969397250859108</v>
-      </c>
-      <c r="E158" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B159" t="s">
-        <v>203</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D159">
-        <v>1.1610441237113402</v>
-      </c>
-      <c r="E159" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B160" t="s">
-        <v>203</v>
-      </c>
-      <c r="C160" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D160">
-        <v>1.1242072852233675</v>
-      </c>
-      <c r="E160" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B161" t="s">
-        <v>203</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D161">
-        <v>1.073711408934708</v>
-      </c>
-      <c r="E161" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B162" t="s">
-        <v>203</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D162">
-        <v>1.0144912714776633</v>
-      </c>
-      <c r="E162" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B163" t="s">
-        <v>203</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D163">
-        <v>0.96214570446735392</v>
-      </c>
-      <c r="E163" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B164" t="s">
-        <v>203</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D164">
-        <v>0.94084206185567021</v>
-      </c>
-      <c r="E164" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B165" t="s">
-        <v>203</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D165">
-        <v>0.92393993127147767</v>
-      </c>
-      <c r="E165" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B166" t="s">
-        <v>203</v>
-      </c>
-      <c r="C166" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D166">
-        <v>0.9992430927835052</v>
-      </c>
-      <c r="E166" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B167" t="s">
-        <v>203</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D167">
-        <v>1.0121810996563574</v>
-      </c>
-      <c r="E167" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B168" t="s">
-        <v>203</v>
-      </c>
-      <c r="C168" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D168">
-        <v>1.0649843986254295</v>
-      </c>
-      <c r="E168" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B169" t="s">
-        <v>203</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D169">
-        <v>1.0855740206185567</v>
-      </c>
-      <c r="E169" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B170" t="s">
-        <v>203</v>
-      </c>
-      <c r="C170" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D170">
-        <v>1.1591992439862542</v>
-      </c>
-      <c r="E170" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B171" t="s">
-        <v>204</v>
-      </c>
-      <c r="C171" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D171">
-        <v>0.7082865292096221</v>
-      </c>
-      <c r="E171" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B172" t="s">
-        <v>204</v>
-      </c>
-      <c r="C172" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D172">
-        <v>0.7055918900343644</v>
-      </c>
-      <c r="E172" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B173" t="s">
-        <v>204</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D173">
-        <v>0.73409807560137474</v>
-      </c>
-      <c r="E173" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B174" t="s">
-        <v>204</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D174">
-        <v>0.7242515463917526</v>
-      </c>
-      <c r="E174" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B175" t="s">
-        <v>204</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D175">
-        <v>0.69141910652920968</v>
-      </c>
-      <c r="E175" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B176" t="s">
-        <v>204</v>
-      </c>
-      <c r="C176" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D176">
-        <v>0.64054776632302413</v>
-      </c>
-      <c r="E176" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B177" t="s">
-        <v>204</v>
-      </c>
-      <c r="C177" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D177">
-        <v>0.59681731958762885</v>
-      </c>
-      <c r="E177" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B178" t="s">
-        <v>204</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D178">
-        <v>0.58485711340206181</v>
-      </c>
-      <c r="E178" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B179" t="s">
-        <v>204</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D179">
-        <v>0.59055931271477669</v>
-      </c>
-      <c r="E179" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B180" t="s">
-        <v>204</v>
-      </c>
-      <c r="C180" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D180">
-        <v>0.56244536082474228</v>
-      </c>
-      <c r="E180" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B181" t="s">
-        <v>204</v>
-      </c>
-      <c r="C181" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D181">
-        <v>0.5557881786941582</v>
-      </c>
-      <c r="E181" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B182" t="s">
-        <v>204</v>
-      </c>
-      <c r="C182" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D182">
-        <v>0.53917353951890024</v>
-      </c>
-      <c r="E182" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B183" t="s">
-        <v>204</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D183">
-        <v>0.50700082474226804</v>
-      </c>
-      <c r="E183" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B184" t="s">
-        <v>204</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D184">
-        <v>0.48673807560137461</v>
-      </c>
-      <c r="E184" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B185" t="s">
-        <v>204</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D185">
-        <v>0.46426089347079036</v>
-      </c>
-      <c r="E185" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B186" t="s">
-        <v>204</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D186">
-        <v>0.46601869415807556</v>
-      </c>
-      <c r="E186" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B187" t="s">
-        <v>204</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D187">
-        <v>0.48226378006872855</v>
-      </c>
-      <c r="E187" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B188" t="s">
-        <v>204</v>
-      </c>
-      <c r="C188" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D188">
-        <v>0.49528577319587624</v>
-      </c>
-      <c r="E188" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B189" t="s">
-        <v>204</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D189">
-        <v>0.55130680412371125</v>
-      </c>
-      <c r="E189" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B190" t="s">
-        <v>204</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D190">
-        <v>0.59025525773195875</v>
-      </c>
-      <c r="E190" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B191" t="s">
-        <v>204</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D191">
-        <v>0.59578240549828176</v>
-      </c>
-      <c r="E191" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B192" t="s">
-        <v>204</v>
-      </c>
-      <c r="C192" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D192">
-        <v>0.65839030927835052</v>
-      </c>
-      <c r="E192" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B193" t="s">
-        <v>204</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D193">
-        <v>0.69512666666666656</v>
-      </c>
-      <c r="E193" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B194" t="s">
-        <v>204</v>
-      </c>
-      <c r="C194" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D194">
-        <v>0.72474955326460488</v>
-      </c>
-      <c r="E194" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B195" t="s">
-        <v>205</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D195">
-        <v>1.012730996563574</v>
-      </c>
-      <c r="E195" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B196" t="s">
-        <v>205</v>
-      </c>
-      <c r="C196" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D196">
-        <v>0.99179491408934706</v>
-      </c>
-      <c r="E196" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B197" t="s">
-        <v>205</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D197">
-        <v>0.93255910652920948</v>
-      </c>
-      <c r="E197" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B198" t="s">
-        <v>205</v>
-      </c>
-      <c r="C198" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D198">
-        <v>0.91981553264604832</v>
-      </c>
-      <c r="E198" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B199" t="s">
-        <v>205</v>
-      </c>
-      <c r="C199" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D199">
-        <v>0.93877594501718209</v>
-      </c>
-      <c r="E199" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B200" t="s">
-        <v>205</v>
-      </c>
-      <c r="C200" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D200">
-        <v>0.9205189003436427</v>
-      </c>
-      <c r="E200" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B201" t="s">
-        <v>205</v>
-      </c>
-      <c r="C201" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D201">
-        <v>0.90993498281786944</v>
-      </c>
-      <c r="E201" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B202" t="s">
-        <v>205</v>
-      </c>
-      <c r="C202" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D202">
-        <v>0.87932969072164946</v>
-      </c>
-      <c r="E202" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B203" t="s">
-        <v>205</v>
-      </c>
-      <c r="C203" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D203">
-        <v>0.90216109965635738</v>
-      </c>
-      <c r="E203" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B204" t="s">
-        <v>205</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D204">
-        <v>0.89415642611683843</v>
-      </c>
-      <c r="E204" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B205" t="s">
-        <v>205</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D205">
-        <v>0.90243855670103079</v>
-      </c>
-      <c r="E205" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B206" t="s">
-        <v>205</v>
-      </c>
-      <c r="C206" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D206">
-        <v>0.94036343642611675</v>
-      </c>
-      <c r="E206" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B207" t="s">
-        <v>205</v>
-      </c>
-      <c r="C207" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D207">
-        <v>0.94337168384879744</v>
-      </c>
-      <c r="E207" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B208" t="s">
-        <v>205</v>
-      </c>
-      <c r="C208" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D208">
-        <v>0.97142872852233675</v>
-      </c>
-      <c r="E208" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B209" t="s">
-        <v>205</v>
-      </c>
-      <c r="C209" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D209">
-        <v>0.96377704467353953</v>
-      </c>
-      <c r="E209" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B210" t="s">
-        <v>205</v>
-      </c>
-      <c r="C210" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D210">
-        <v>0.96066701030927837</v>
-      </c>
-      <c r="E210" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B211" t="s">
-        <v>205</v>
-      </c>
-      <c r="C211" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D211">
-        <v>0.90678261168384877</v>
-      </c>
-      <c r="E211" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B212" t="s">
-        <v>205</v>
-      </c>
-      <c r="C212" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D212">
-        <v>0.91838247422680419</v>
-      </c>
-      <c r="E212" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B213" t="s">
-        <v>205</v>
-      </c>
-      <c r="C213" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D213">
-        <v>0.93904302405498274</v>
-      </c>
-      <c r="E213" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B214" t="s">
-        <v>205</v>
-      </c>
-      <c r="C214" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D214">
-        <v>0.95965958762886616</v>
-      </c>
-      <c r="E214" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C215" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D215">
-        <v>0.96059388316151217</v>
-      </c>
-      <c r="E215" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B216" t="s">
-        <v>205</v>
-      </c>
-      <c r="C216" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D216">
-        <v>0.96798563573883156</v>
-      </c>
-      <c r="E216" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B217" t="s">
-        <v>205</v>
-      </c>
-      <c r="C217" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D217">
-        <v>0.94874384879725093</v>
-      </c>
-      <c r="E217" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B218" t="s">
-        <v>205</v>
-      </c>
-      <c r="C218" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D218">
-        <v>0.99128584192439861</v>
-      </c>
-      <c r="E218" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B219" t="s">
-        <v>206</v>
-      </c>
-      <c r="C219" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D219">
-        <v>1.09651470790378</v>
-      </c>
-      <c r="E219" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B220" t="s">
-        <v>206</v>
-      </c>
-      <c r="C220" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D220">
-        <v>1.127360206185567</v>
-      </c>
-      <c r="E220" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B221" t="s">
-        <v>206</v>
-      </c>
-      <c r="C221" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D221">
-        <v>1.1543338144329898</v>
-      </c>
-      <c r="E221" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B222" t="s">
-        <v>206</v>
-      </c>
-      <c r="C222" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D222">
-        <v>1.2045236426116839</v>
-      </c>
-      <c r="E222" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B223" t="s">
-        <v>206</v>
-      </c>
-      <c r="C223" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D223">
-        <v>1.2453232989690721</v>
-      </c>
-      <c r="E223" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B224" t="s">
-        <v>206</v>
-      </c>
-      <c r="C224" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D224">
-        <v>1.2950220618556703</v>
-      </c>
-      <c r="E224" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B225" t="s">
-        <v>206</v>
-      </c>
-      <c r="C225" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D225">
-        <v>1.3106542955326459</v>
-      </c>
-      <c r="E225" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B226" t="s">
-        <v>206</v>
-      </c>
-      <c r="C226" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D226">
-        <v>1.2977606872852234</v>
-      </c>
-      <c r="E226" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B227" t="s">
-        <v>206</v>
-      </c>
-      <c r="C227" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D227">
-        <v>1.3214600000000001</v>
-      </c>
-      <c r="E227" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B228" t="s">
-        <v>206</v>
-      </c>
-      <c r="C228" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D228">
-        <v>1.2708189003436425</v>
-      </c>
-      <c r="E228" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B229" t="s">
-        <v>206</v>
-      </c>
-      <c r="C229" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D229">
-        <v>1.2609050171821305</v>
-      </c>
-      <c r="E229" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B230" t="s">
-        <v>206</v>
-      </c>
-      <c r="C230" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D230">
-        <v>1.2240962199312715</v>
-      </c>
-      <c r="E230" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B231" t="s">
-        <v>206</v>
-      </c>
-      <c r="C231" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D231">
-        <v>1.1857129896907217</v>
-      </c>
-      <c r="E231" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B232" t="s">
-        <v>206</v>
-      </c>
-      <c r="C232" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D232">
-        <v>1.0889511340206186</v>
-      </c>
-      <c r="E232" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B233" t="s">
-        <v>206</v>
-      </c>
-      <c r="C233" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D233">
-        <v>1.0770185567010309</v>
-      </c>
-      <c r="E233" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B234" t="s">
-        <v>206</v>
-      </c>
-      <c r="C234" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D234">
-        <v>1.0882625429553265</v>
-      </c>
-      <c r="E234" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B235" t="s">
-        <v>206</v>
-      </c>
-      <c r="C235" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D235">
-        <v>1.0373694845360826</v>
-      </c>
-      <c r="E235" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B236" t="s">
-        <v>206</v>
-      </c>
-      <c r="C236" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D236">
-        <v>1.0282863917525773</v>
-      </c>
-      <c r="E236" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B237" t="s">
-        <v>206</v>
-      </c>
-      <c r="C237" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D237">
-        <v>1.0052668728522336</v>
-      </c>
-      <c r="E237" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B238" t="s">
-        <v>206</v>
-      </c>
-      <c r="C238" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D238">
-        <v>1.010078969072165</v>
-      </c>
-      <c r="E238" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B239" t="s">
-        <v>206</v>
-      </c>
-      <c r="C239" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D239">
-        <v>1.0360531958762886</v>
-      </c>
-      <c r="E239" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B240" t="s">
-        <v>206</v>
-      </c>
-      <c r="C240" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D240">
-        <v>1.1252995876288658</v>
-      </c>
-      <c r="E240" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B241" t="s">
-        <v>206</v>
-      </c>
-      <c r="C241" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D241">
-        <v>1.1131998625429553</v>
-      </c>
-      <c r="E241" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B242" t="s">
-        <v>206</v>
-      </c>
-      <c r="C242" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D242">
-        <v>1.1386089347079038</v>
-      </c>
-      <c r="E242" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B243" t="s">
-        <v>215</v>
-      </c>
-      <c r="C243" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D243">
-        <v>1.09651470790378</v>
-      </c>
-      <c r="E243" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B244" t="s">
-        <v>215</v>
-      </c>
-      <c r="C244" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D244">
-        <v>1.127360206185567</v>
-      </c>
-      <c r="E244" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B245" t="s">
-        <v>215</v>
-      </c>
-      <c r="C245" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D245">
-        <v>1.1543338144329898</v>
-      </c>
-      <c r="E245" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B246" t="s">
-        <v>215</v>
-      </c>
-      <c r="C246" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D246">
-        <v>1.2045236426116839</v>
-      </c>
-      <c r="E246" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B247" t="s">
-        <v>215</v>
-      </c>
-      <c r="C247" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D247">
-        <v>1.2453232989690721</v>
-      </c>
-      <c r="E247" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B248" t="s">
-        <v>215</v>
-      </c>
-      <c r="C248" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D248">
-        <v>1.2950220618556703</v>
-      </c>
-      <c r="E248" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B249" t="s">
-        <v>215</v>
-      </c>
-      <c r="C249" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D249">
-        <v>1.3106542955326459</v>
-      </c>
-      <c r="E249" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B250" t="s">
-        <v>215</v>
-      </c>
-      <c r="C250" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D250">
-        <v>1.2977606872852234</v>
-      </c>
-      <c r="E250" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B251" t="s">
-        <v>215</v>
-      </c>
-      <c r="C251" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D251">
-        <v>1.3214600000000001</v>
-      </c>
-      <c r="E251" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B252" t="s">
-        <v>215</v>
-      </c>
-      <c r="C252" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D252">
-        <v>1.2708189003436425</v>
-      </c>
-      <c r="E252" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B253" t="s">
-        <v>215</v>
-      </c>
-      <c r="C253" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D253">
-        <v>1.2609050171821305</v>
-      </c>
-      <c r="E253" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B254" t="s">
-        <v>215</v>
-      </c>
-      <c r="C254" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D254">
-        <v>1.2240962199312715</v>
-      </c>
-      <c r="E254" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B255" t="s">
-        <v>215</v>
-      </c>
-      <c r="C255" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D255">
-        <v>1.1857129896907217</v>
-      </c>
-      <c r="E255" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B256" t="s">
-        <v>215</v>
-      </c>
-      <c r="C256" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D256">
-        <v>1.0889511340206186</v>
-      </c>
-      <c r="E256" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B257" t="s">
-        <v>215</v>
-      </c>
-      <c r="C257" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D257">
-        <v>1.0770185567010309</v>
-      </c>
-      <c r="E257" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B258" t="s">
-        <v>215</v>
-      </c>
-      <c r="C258" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D258">
-        <v>1.0882625429553265</v>
-      </c>
-      <c r="E258" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B259" t="s">
-        <v>215</v>
-      </c>
-      <c r="C259" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D259">
-        <v>1.0373694845360826</v>
-      </c>
-      <c r="E259" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B260" t="s">
-        <v>215</v>
-      </c>
-      <c r="C260" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D260">
-        <v>1.0282863917525773</v>
-      </c>
-      <c r="E260" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B261" t="s">
-        <v>215</v>
-      </c>
-      <c r="C261" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D261">
-        <v>1.0052668728522336</v>
-      </c>
-      <c r="E261" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B262" t="s">
-        <v>215</v>
-      </c>
-      <c r="C262" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D262">
-        <v>1.010078969072165</v>
-      </c>
-      <c r="E262" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B263" t="s">
-        <v>215</v>
-      </c>
-      <c r="C263" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D263">
-        <v>1.0360531958762886</v>
-      </c>
-      <c r="E263" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B264" t="s">
-        <v>215</v>
-      </c>
-      <c r="C264" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D264">
-        <v>1.1252995876288658</v>
-      </c>
-      <c r="E264" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B265" t="s">
-        <v>215</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D265">
-        <v>1.1131998625429553</v>
-      </c>
-      <c r="E265" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B266" t="s">
-        <v>215</v>
-      </c>
-      <c r="C266" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D266">
-        <v>1.1386089347079038</v>
-      </c>
-      <c r="E266" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B267" t="s">
-        <v>228</v>
-      </c>
-      <c r="C267" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D267">
-        <v>0.7082865292096221</v>
-      </c>
-      <c r="E267" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A268" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B268" t="s">
-        <v>228</v>
-      </c>
-      <c r="C268" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D268">
-        <v>0.7055918900343644</v>
-      </c>
-      <c r="E268" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B269" t="s">
-        <v>228</v>
-      </c>
-      <c r="C269" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D269">
-        <v>0.73409807560137474</v>
-      </c>
-      <c r="E269" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A270" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B270" t="s">
-        <v>228</v>
-      </c>
-      <c r="C270" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D270">
-        <v>0.7242515463917526</v>
-      </c>
-      <c r="E270" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B271" t="s">
-        <v>228</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D271">
-        <v>0.69141910652920968</v>
-      </c>
-      <c r="E271" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B272" t="s">
-        <v>228</v>
-      </c>
-      <c r="C272" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D272">
-        <v>0.64054776632302413</v>
-      </c>
-      <c r="E272" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B273" t="s">
-        <v>228</v>
-      </c>
-      <c r="C273" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D273">
-        <v>0.59681731958762885</v>
-      </c>
-      <c r="E273" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B274" t="s">
-        <v>228</v>
-      </c>
-      <c r="C274" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D274">
-        <v>0.58485711340206181</v>
-      </c>
-      <c r="E274" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B275" t="s">
-        <v>228</v>
-      </c>
-      <c r="C275" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D275">
-        <v>0.59055931271477669</v>
-      </c>
-      <c r="E275" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B276" t="s">
-        <v>228</v>
-      </c>
-      <c r="C276" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D276">
-        <v>0.56244536082474228</v>
-      </c>
-      <c r="E276" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B277" t="s">
-        <v>228</v>
-      </c>
-      <c r="C277" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D277">
-        <v>0.5557881786941582</v>
-      </c>
-      <c r="E277" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B278" t="s">
-        <v>228</v>
-      </c>
-      <c r="C278" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D278">
-        <v>0.53917353951890024</v>
-      </c>
-      <c r="E278" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B279" t="s">
-        <v>228</v>
-      </c>
-      <c r="C279" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D279">
-        <v>0.50700082474226804</v>
-      </c>
-      <c r="E279" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B280" t="s">
-        <v>228</v>
-      </c>
-      <c r="C280" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D280">
-        <v>0.48673807560137461</v>
-      </c>
-      <c r="E280" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B281" t="s">
-        <v>228</v>
-      </c>
-      <c r="C281" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D281">
-        <v>0.46426089347079036</v>
-      </c>
-      <c r="E281" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B282" t="s">
-        <v>228</v>
-      </c>
-      <c r="C282" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D282">
-        <v>0.46601869415807556</v>
-      </c>
-      <c r="E282" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B283" t="s">
-        <v>228</v>
-      </c>
-      <c r="C283" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D283">
-        <v>0.48226378006872855</v>
-      </c>
-      <c r="E283" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B284" t="s">
-        <v>228</v>
-      </c>
-      <c r="C284" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D284">
-        <v>0.49528577319587624</v>
-      </c>
-      <c r="E284" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B285" t="s">
-        <v>228</v>
-      </c>
-      <c r="C285" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D285">
-        <v>0.55130680412371125</v>
-      </c>
-      <c r="E285" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B286" t="s">
-        <v>228</v>
-      </c>
-      <c r="C286" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D286">
-        <v>0.59025525773195875</v>
-      </c>
-      <c r="E286" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B287" t="s">
-        <v>228</v>
-      </c>
-      <c r="C287" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D287">
-        <v>0.59578240549828176</v>
-      </c>
-      <c r="E287" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B288" t="s">
-        <v>228</v>
-      </c>
-      <c r="C288" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D288">
-        <v>0.65839030927835052</v>
-      </c>
-      <c r="E288" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B289" t="s">
-        <v>228</v>
-      </c>
-      <c r="C289" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D289">
-        <v>0.69512666666666656</v>
-      </c>
-      <c r="E289" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B290" t="s">
-        <v>228</v>
-      </c>
-      <c r="C290" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D290">
-        <v>0.72474955326460488</v>
-      </c>
-      <c r="E290" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
